--- a/FINAL_all_data_for_stats.xlsx
+++ b/FINAL_all_data_for_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="GITHUB_VERSION_all_data_for_sta" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Creating the table" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Table S1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="98">
   <si>
     <t>tn</t>
   </si>
@@ -279,6 +279,9 @@
     <t>SVL (cm)</t>
   </si>
   <si>
+    <t>Mass</t>
+  </si>
+  <si>
     <t>Temp range</t>
   </si>
   <si>
@@ -400,12 +403,18 @@
       <name val="Crimson Text"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -414,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -534,18 +543,35 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -32695,8 +32721,8 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="14.25"/>
     <col customWidth="1" min="3" max="3" width="33.38"/>
-    <col customWidth="1" min="12" max="12" width="23.38"/>
-    <col customWidth="1" min="13" max="13" width="17.63"/>
+    <col customWidth="1" min="13" max="13" width="23.38"/>
+    <col customWidth="1" min="14" max="14" width="17.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32739,7 +32765,9 @@
       <c r="M1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="16"/>
+      <c r="N1" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
@@ -32752,6 +32780,7 @@
       <c r="X1" s="16"/>
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
@@ -32769,36 +32798,39 @@
         <f>vlookup(A2,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>29.534</v>
       </c>
-      <c r="E2" s="19" t="str">
+      <c r="E2" s="21">
+        <v>5.1</v>
+      </c>
+      <c r="F2" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A2)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A2))</f>
         <v>22.6 - 23.6</v>
       </c>
-      <c r="F2" s="21">
+      <c r="G2" s="21">
         <v>56.18285840048757</v>
       </c>
-      <c r="G2" s="19">
+      <c r="H2" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A2)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="21">
+      <c r="I2" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A2)</f>
         <v>60.57641479</v>
       </c>
-      <c r="I2" s="21">
+      <c r="J2" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A2)</f>
         <v>66.27963951</v>
       </c>
-      <c r="J2" s="22">
+      <c r="K2" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A2)</f>
         <v>0.60706694</v>
       </c>
-      <c r="K2" s="22">
+      <c r="L2" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A2)</f>
         <v>0.680194112</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23" t="str">
-        <f t="shared" ref="M2:M21" si="1">if(F2&gt;H2,"Yes","No")</f>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="str">
+        <f t="shared" ref="N2:N21" si="1">if(G2&gt;I2,"Yes","No")</f>
         <v>No</v>
       </c>
     </row>
@@ -32818,35 +32850,38 @@
         <f>vlookup(A3,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>30.64466667</v>
       </c>
-      <c r="E3" s="19" t="str">
+      <c r="E3" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="F3" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A3)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A3))</f>
         <v>29.2 - 30</v>
       </c>
-      <c r="F3" s="21">
+      <c r="G3" s="21">
         <v>57.73503034785825</v>
       </c>
-      <c r="G3" s="19">
+      <c r="H3" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A3)</f>
         <v>5</v>
       </c>
-      <c r="H3" s="21">
+      <c r="I3" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A3)</f>
         <v>58.74831658</v>
       </c>
-      <c r="I3" s="21">
+      <c r="J3" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A3)</f>
         <v>74.03416546</v>
       </c>
-      <c r="J3" s="22">
+      <c r="K3" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A3)</f>
         <v>0.630480765</v>
       </c>
-      <c r="K3" s="22">
+      <c r="L3" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A3)</f>
         <v>0.785372739</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23" t="str">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -32867,34 +32902,37 @@
         <f>vlookup(A4,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>43</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="21">
         <v>39.282422558139544</v>
       </c>
-      <c r="G4" s="19">
+      <c r="H4" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A4)</f>
         <v>5</v>
       </c>
-      <c r="H4" s="21">
+      <c r="I4" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A4)</f>
         <v>44.33463438</v>
       </c>
-      <c r="I4" s="21">
+      <c r="J4" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A4)</f>
         <v>58.64136972</v>
       </c>
-      <c r="J4" s="22">
+      <c r="K4" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A4)</f>
         <v>0.481871264</v>
       </c>
-      <c r="K4" s="22">
+      <c r="L4" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A4)</f>
         <v>0.684395816</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23" t="str">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -32915,35 +32953,38 @@
         <f>vlookup(A5,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>46.19933333</v>
       </c>
-      <c r="E5" s="19" t="str">
+      <c r="E5" s="21">
+        <v>14.5</v>
+      </c>
+      <c r="F5" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A5)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A5))</f>
         <v>26.5 - 32.1</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="21">
         <v>52.37135896621885</v>
       </c>
-      <c r="G5" s="19">
+      <c r="H5" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A5)</f>
         <v>9</v>
       </c>
-      <c r="H5" s="21">
+      <c r="I5" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A5)</f>
         <v>54.76749983</v>
       </c>
-      <c r="I5" s="21">
+      <c r="J5" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A5)</f>
         <v>67.23783205</v>
       </c>
-      <c r="J5" s="22">
+      <c r="K5" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A5)</f>
         <v>0.567185693</v>
       </c>
-      <c r="K5" s="22">
+      <c r="L5" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A5)</f>
         <v>0.777006444</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23" t="str">
+      <c r="M5" s="23"/>
+      <c r="N5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -32964,75 +33005,81 @@
         <f>vlookup(A6,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>55</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="21">
+      <c r="E6" s="21">
+        <v>23.9</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="21">
         <v>41.51879781818181</v>
       </c>
-      <c r="G6" s="19">
+      <c r="H6" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A6)</f>
         <v>2</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A6)</f>
         <v>44.9854196</v>
       </c>
-      <c r="I6" s="21">
+      <c r="J6" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A6)</f>
         <v>49.80960559</v>
       </c>
-      <c r="J6" s="22">
+      <c r="K6" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A6)</f>
         <v>0.467560843</v>
       </c>
-      <c r="K6" s="22">
+      <c r="L6" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A6)</f>
         <v>0.558234497</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23" t="str">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="27">
         <v>59.0</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="E7" s="21">
+        <v>27.8</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="21">
         <v>54.93851288135594</v>
       </c>
-      <c r="G7" s="19">
+      <c r="H7" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>91</v>
-      </c>
       <c r="I7" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="24" t="s">
         <v>92</v>
       </c>
+      <c r="J7" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="K7" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23" t="str">
+        <v>93</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -33053,34 +33100,37 @@
         <f>vlookup(A8,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>65</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="E8" s="21">
+        <v>37.1</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="21">
         <v>49.00586338461538</v>
       </c>
-      <c r="G8" s="19">
+      <c r="H8" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A8)</f>
         <v>3</v>
       </c>
-      <c r="H8" s="21">
+      <c r="I8" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A8)</f>
         <v>52.23365251</v>
       </c>
-      <c r="I8" s="21">
+      <c r="J8" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A8)</f>
         <v>56.29424515</v>
       </c>
-      <c r="J8" s="22">
+      <c r="K8" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A8)</f>
         <v>0.525689698</v>
       </c>
-      <c r="K8" s="22">
+      <c r="L8" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A8)</f>
         <v>0.581772819</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23" t="str">
+      <c r="M8" s="23"/>
+      <c r="N8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -33101,37 +33151,40 @@
         <f>vlookup(A9,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>77.373</v>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="21">
+        <v>47.7</v>
+      </c>
+      <c r="F9" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A9)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A9))</f>
         <v>30.7 - 33.6</v>
       </c>
-      <c r="F9" s="21">
+      <c r="G9" s="21">
         <v>44.93568984012511</v>
       </c>
-      <c r="G9" s="19">
+      <c r="H9" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A9)</f>
         <v>15</v>
       </c>
-      <c r="H9" s="21">
+      <c r="I9" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A9)</f>
         <v>33.75414085</v>
       </c>
-      <c r="I9" s="21">
+      <c r="J9" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A9)</f>
         <v>53.58645929</v>
       </c>
-      <c r="J9" s="22">
+      <c r="K9" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A9)</f>
         <v>0.4207462035</v>
       </c>
-      <c r="K9" s="22">
+      <c r="L9" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A9)</f>
         <v>0.824724656</v>
       </c>
-      <c r="L9" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="30" t="str">
+      <c r="M9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -33152,39 +33205,42 @@
         <f>vlookup(A10,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>76.98133333</v>
       </c>
-      <c r="E10" s="19" t="str">
+      <c r="E10" s="21">
+        <v>83.4</v>
+      </c>
+      <c r="F10" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A10)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A10))</f>
         <v>24.5 - 25.3</v>
       </c>
-      <c r="F10" s="21">
+      <c r="G10" s="21">
         <v>51.888007662337664</v>
       </c>
-      <c r="G10" s="19">
+      <c r="H10" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A10)</f>
         <v>6</v>
       </c>
-      <c r="H10" s="21">
+      <c r="I10" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A10)</f>
         <v>37.91598582</v>
       </c>
-      <c r="I10" s="21">
+      <c r="J10" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A10)</f>
         <v>60.17566095</v>
       </c>
-      <c r="J10" s="22">
+      <c r="K10" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A10)</f>
         <v>0.411051798</v>
       </c>
-      <c r="K10" s="22">
+      <c r="L10" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A10)</f>
         <v>0.61604557</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="30" t="str">
+      <c r="M10" s="23"/>
+      <c r="N10" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
@@ -33202,35 +33258,38 @@
         <f>vlookup(A11,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>81.23117629</v>
       </c>
-      <c r="E11" s="19" t="str">
+      <c r="E11" s="21">
+        <v>76.5</v>
+      </c>
+      <c r="F11" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A11)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A11))</f>
         <v>23 - 29.5</v>
       </c>
-      <c r="F11" s="21">
+      <c r="G11" s="21">
         <v>48.22322767437488</v>
       </c>
-      <c r="G11" s="19">
+      <c r="H11" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A11)</f>
         <v>7</v>
       </c>
-      <c r="H11" s="21">
+      <c r="I11" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A11)</f>
         <v>48.01964945</v>
       </c>
-      <c r="I11" s="21">
+      <c r="J11" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A11)</f>
         <v>65.54652154</v>
       </c>
-      <c r="J11" s="22">
+      <c r="K11" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A11)</f>
         <v>0.500369313</v>
       </c>
-      <c r="K11" s="22">
+      <c r="L11" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A11)</f>
         <v>0.882936147</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="30" t="str">
+      <c r="M11" s="23"/>
+      <c r="N11" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -33251,41 +33310,44 @@
         <f>vlookup(A12,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>84.25833333</v>
       </c>
-      <c r="E12" s="19" t="str">
+      <c r="E12" s="21">
+        <v>85.5</v>
+      </c>
+      <c r="F12" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A12)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A12))</f>
         <v>27 - 36.6</v>
       </c>
-      <c r="F12" s="21">
+      <c r="G12" s="21">
         <v>49.82819198198248</v>
       </c>
-      <c r="G12" s="19">
+      <c r="H12" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A12)</f>
         <v>12</v>
       </c>
-      <c r="H12" s="21">
+      <c r="I12" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A12)</f>
         <v>26.38997986</v>
       </c>
-      <c r="I12" s="21">
+      <c r="J12" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A12)</f>
         <v>69.10463562</v>
       </c>
-      <c r="J12" s="22">
+      <c r="K12" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A12)</f>
         <v>0.3844479438</v>
       </c>
-      <c r="K12" s="22">
+      <c r="L12" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A12)</f>
         <v>0.956280201</v>
       </c>
-      <c r="L12" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="30" t="str">
+      <c r="M12" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
@@ -33303,35 +33365,38 @@
         <f>vlookup(A13,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>86.992</v>
       </c>
-      <c r="E13" s="19" t="str">
+      <c r="E13" s="21">
+        <v>72.3</v>
+      </c>
+      <c r="F13" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A13)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A13))</f>
         <v>27 - 27</v>
       </c>
-      <c r="F13" s="21">
+      <c r="G13" s="21">
         <v>34.69431271302555</v>
       </c>
-      <c r="G13" s="19">
+      <c r="H13" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A13)</f>
         <v>1</v>
       </c>
-      <c r="H13" s="21">
+      <c r="I13" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A13)</f>
         <v>38.34691695</v>
       </c>
-      <c r="I13" s="21">
+      <c r="J13" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A13)</f>
         <v>38.34691695</v>
       </c>
-      <c r="J13" s="22">
+      <c r="K13" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A13)</f>
         <v>0.41239686</v>
       </c>
-      <c r="K13" s="22">
+      <c r="L13" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A13)</f>
         <v>0.41239686</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23" t="str">
+      <c r="M13" s="23"/>
+      <c r="N13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -33352,35 +33417,38 @@
         <f>vlookup(A14,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>88.97333333</v>
       </c>
-      <c r="E14" s="19" t="str">
+      <c r="E14" s="21">
+        <v>84.8</v>
+      </c>
+      <c r="F14" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A14)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A14))</f>
         <v>27.6 - 30.2</v>
       </c>
-      <c r="F14" s="21">
+      <c r="G14" s="21">
         <v>46.33636816274539</v>
       </c>
-      <c r="G14" s="19">
+      <c r="H14" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A14)</f>
         <v>15</v>
       </c>
-      <c r="H14" s="21">
+      <c r="I14" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A14)</f>
         <v>41.47266909</v>
       </c>
-      <c r="I14" s="21">
+      <c r="J14" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A14)</f>
         <v>73.75550618</v>
       </c>
-      <c r="J14" s="22">
+      <c r="K14" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A14)</f>
         <v>0.4716849</v>
       </c>
-      <c r="K14" s="22">
+      <c r="L14" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A14)</f>
         <v>0.978308821</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="30" t="str">
+      <c r="M14" s="23"/>
+      <c r="N14" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -33401,76 +33469,82 @@
         <f>vlookup(A15,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>89.49533333</v>
       </c>
-      <c r="E15" s="19" t="str">
+      <c r="E15" s="21">
+        <v>133.4</v>
+      </c>
+      <c r="F15" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A15)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A15))</f>
         <v>22.4 - 24.8</v>
       </c>
-      <c r="F15" s="21">
+      <c r="G15" s="21">
         <v>45.7044108657599</v>
       </c>
-      <c r="G15" s="19">
+      <c r="H15" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A15)</f>
         <v>6</v>
       </c>
-      <c r="H15" s="21">
+      <c r="I15" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A15)</f>
         <v>40.42252177</v>
       </c>
-      <c r="I15" s="21">
+      <c r="J15" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A15)</f>
         <v>51.18115319</v>
       </c>
-      <c r="J15" s="22">
+      <c r="K15" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A15)</f>
         <v>0.436741821</v>
       </c>
-      <c r="K15" s="22">
+      <c r="L15" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A15)</f>
         <v>0.587881235</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="30" t="str">
+      <c r="M15" s="23"/>
+      <c r="N15" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="27">
         <v>102.0</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="E16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="21">
         <v>32.472721372549024</v>
       </c>
-      <c r="G16" s="19">
+      <c r="H16" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>91</v>
-      </c>
       <c r="I16" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="24" t="s">
         <v>92</v>
       </c>
+      <c r="J16" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="K16" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23" t="str">
+        <v>93</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -33491,34 +33565,37 @@
         <f>vlookup(A17,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>109</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="E17" s="21">
+        <v>161.7</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="21">
         <v>41.55718376146788</v>
       </c>
-      <c r="G17" s="19">
+      <c r="H17" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A17)</f>
         <v>3</v>
       </c>
-      <c r="H17" s="21">
+      <c r="I17" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A17)</f>
         <v>42.14644079</v>
       </c>
-      <c r="I17" s="21">
+      <c r="J17" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A17)</f>
         <v>45.79301898</v>
       </c>
-      <c r="J17" s="22">
+      <c r="K17" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A17)</f>
         <v>0.454175601</v>
       </c>
-      <c r="K17" s="22">
+      <c r="L17" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A17)</f>
         <v>0.477849772</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23" t="str">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -33539,35 +33616,38 @@
         <f>vlookup(A18,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>113.9</v>
       </c>
-      <c r="E18" s="19" t="str">
+      <c r="E18" s="20">
+        <v>185.1</v>
+      </c>
+      <c r="F18" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A18)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A18))</f>
         <v>29.5 - 30.7</v>
       </c>
-      <c r="F18" s="21">
+      <c r="G18" s="21">
         <v>39.39838823190478</v>
       </c>
-      <c r="G18" s="19">
+      <c r="H18" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A18)</f>
         <v>4</v>
       </c>
-      <c r="H18" s="21">
+      <c r="I18" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A18)</f>
         <v>43.35268512</v>
       </c>
-      <c r="I18" s="21">
+      <c r="J18" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A18)</f>
         <v>48.08739851</v>
       </c>
-      <c r="J18" s="22">
+      <c r="K18" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A18)</f>
         <v>0.473293037</v>
       </c>
-      <c r="K18" s="22">
+      <c r="L18" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A18)</f>
         <v>0.655730781</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23" t="str">
+      <c r="M18" s="23"/>
+      <c r="N18" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -33588,35 +33668,38 @@
         <f>vlookup(A19,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>119.094</v>
       </c>
-      <c r="E19" s="19" t="str">
+      <c r="E19" s="20">
+        <v>301.1</v>
+      </c>
+      <c r="F19" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A19)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A19))</f>
         <v>27.6 - 30</v>
       </c>
-      <c r="F19" s="21">
+      <c r="G19" s="21">
         <v>42.01566157824912</v>
       </c>
-      <c r="G19" s="19">
+      <c r="H19" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A19)</f>
         <v>9</v>
       </c>
-      <c r="H19" s="21">
+      <c r="I19" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A19)</f>
         <v>33.32889503</v>
       </c>
-      <c r="I19" s="21">
+      <c r="J19" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A19)</f>
         <v>52.06756815</v>
       </c>
-      <c r="J19" s="22">
+      <c r="K19" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A19)</f>
         <v>0.39183583</v>
       </c>
-      <c r="K19" s="22">
+      <c r="L19" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A19)</f>
         <v>0.563661014</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="30" t="str">
+      <c r="M19" s="23"/>
+      <c r="N19" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -33637,35 +33720,38 @@
         <f>vlookup(A20,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>124.3746667</v>
       </c>
-      <c r="E20" s="19" t="str">
+      <c r="E20" s="19">
+        <v>261.3</v>
+      </c>
+      <c r="F20" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A20)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A20))</f>
         <v>26.3 - 28.7</v>
       </c>
-      <c r="F20" s="21">
+      <c r="G20" s="21">
         <v>37.364629667349185</v>
       </c>
-      <c r="G20" s="19">
+      <c r="H20" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A20)</f>
         <v>11</v>
       </c>
-      <c r="H20" s="21">
+      <c r="I20" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A20)</f>
         <v>35.41150137</v>
       </c>
-      <c r="I20" s="21">
+      <c r="J20" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A20)</f>
         <v>51.93519645</v>
       </c>
-      <c r="J20" s="22">
+      <c r="K20" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A20)</f>
         <v>0.377850392</v>
       </c>
-      <c r="K20" s="22">
+      <c r="L20" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A20)</f>
         <v>0.581657001</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="30" t="str">
+      <c r="M20" s="23"/>
+      <c r="N20" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
@@ -33686,35 +33772,38 @@
         <f>vlookup(A21,GITHUB_VERSION_all_data_for_sta!B$2:G$259,4,False)</f>
         <v>127.4433333</v>
       </c>
-      <c r="E21" s="19" t="str">
+      <c r="E21" s="20">
+        <v>267.2</v>
+      </c>
+      <c r="F21" s="19" t="str">
         <f>concatenate(minifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A21)," - ",maxifs(GITHUB_VERSION_all_data_for_sta!H$2:H$259,GITHUB_VERSION_all_data_for_sta!B$2:B$259,A21))</f>
         <v>31.1 - 32</v>
       </c>
-      <c r="F21" s="21">
+      <c r="G21" s="21">
         <v>38.081127847670864</v>
       </c>
-      <c r="G21" s="19">
+      <c r="H21" s="19">
         <f>countif(GITHUB_VERSION_all_data_for_sta!B$2:B$259,A21)</f>
         <v>4</v>
       </c>
-      <c r="H21" s="21">
+      <c r="I21" s="21">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A21)</f>
         <v>41.13371037</v>
       </c>
-      <c r="I21" s="21">
+      <c r="J21" s="21">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AA$3:AA$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A21)</f>
         <v>42.98315867</v>
       </c>
-      <c r="J21" s="22">
+      <c r="K21" s="22">
         <f>minifs(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A21)</f>
         <v>0.417787743</v>
       </c>
-      <c r="K21" s="22">
+      <c r="L21" s="22">
         <f>MAXIFS(GITHUB_VERSION_all_data_for_sta!AR$3:AR$259,GITHUB_VERSION_all_data_for_sta!B$3:B$259,A21)</f>
         <v>0.46285422</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23" t="str">
+      <c r="M21" s="23"/>
+      <c r="N21" s="23" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
@@ -33738,6 +33827,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" s="36"/>
@@ -33745,12 +33835,13 @@
       <c r="C25" s="38"/>
       <c r="D25" s="39"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26">
       <c r="A26" s="36"/>
@@ -33758,12 +33849,13 @@
       <c r="C26" s="44"/>
       <c r="D26" s="39"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27">
       <c r="A27" s="36"/>
@@ -33771,244 +33863,273 @@
       <c r="C27" s="38"/>
       <c r="D27" s="39"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
     </row>
     <row r="28">
       <c r="A28" s="36"/>
       <c r="B28" s="37"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29">
       <c r="A29" s="36"/>
       <c r="B29" s="37"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30">
       <c r="A30" s="36"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31">
       <c r="A31" s="36"/>
       <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32">
       <c r="A32" s="36"/>
       <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="42"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
     <row r="34">
       <c r="A34" s="36"/>
       <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
     </row>
     <row r="35">
       <c r="A35" s="36"/>
       <c r="B35" s="37"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="42"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
     </row>
     <row r="36">
       <c r="A36" s="36"/>
       <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
     </row>
     <row r="37">
       <c r="A37" s="36"/>
       <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
     </row>
     <row r="38">
       <c r="A38" s="36"/>
       <c r="B38" s="37"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="41"/>
       <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
     </row>
     <row r="39">
       <c r="A39" s="36"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
       <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40">
       <c r="A40" s="36"/>
       <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41">
       <c r="A41" s="36"/>
       <c r="B41" s="37"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="41"/>
       <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42">
       <c r="A42" s="36"/>
       <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
     </row>
     <row r="43">
       <c r="A43" s="36"/>
       <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
     </row>
     <row r="44">
       <c r="A44" s="36"/>
       <c r="B44" s="37"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="45"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="47"/>
     </row>
     <row r="46">
-      <c r="D46" s="33"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="47"/>
     </row>
     <row r="47">
-      <c r="D47" s="33"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="47"/>
     </row>
     <row r="48">
       <c r="A48" s="13"/>
       <c r="B48" s="42"/>
-      <c r="D48" s="33"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49">
       <c r="A49" s="36"/>
@@ -34016,11 +34137,9 @@
     </row>
     <row r="50">
       <c r="A50" s="36"/>
-      <c r="D50" s="33"/>
     </row>
     <row r="51">
       <c r="A51" s="36"/>
-      <c r="D51" s="33"/>
     </row>
     <row r="52">
       <c r="A52" s="36"/>
@@ -34040,11 +34159,9 @@
     </row>
     <row r="56">
       <c r="A56" s="36"/>
-      <c r="D56" s="33"/>
     </row>
     <row r="57">
       <c r="A57" s="36"/>
-      <c r="D57" s="33"/>
     </row>
     <row r="58">
       <c r="A58" s="36"/>
@@ -34056,19 +34173,15 @@
     </row>
     <row r="60">
       <c r="A60" s="36"/>
-      <c r="D60" s="33"/>
     </row>
     <row r="61">
       <c r="A61" s="36"/>
-      <c r="D61" s="33"/>
     </row>
     <row r="62">
       <c r="A62" s="36"/>
-      <c r="D62" s="33"/>
     </row>
     <row r="63">
       <c r="A63" s="36"/>
-      <c r="D63" s="33"/>
     </row>
     <row r="64">
       <c r="A64" s="36"/>
